--- a/data/pca/factorExposure/factorExposure_2019-03-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1202775430037454</v>
+        <v>-0.07747103405874103</v>
       </c>
       <c r="C2">
-        <v>0.002001751146805968</v>
+        <v>-0.03662221705094135</v>
       </c>
       <c r="D2">
-        <v>-0.05225471095526216</v>
+        <v>-0.00945902434471144</v>
       </c>
       <c r="E2">
-        <v>0.1168258874449881</v>
+        <v>0.04064887448757962</v>
       </c>
       <c r="F2">
-        <v>0.1098352997302639</v>
+        <v>-0.1402480493078742</v>
       </c>
       <c r="G2">
-        <v>-0.01987237940840451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1038426644575849</v>
+      </c>
+      <c r="H2">
+        <v>-0.05703813141831136</v>
+      </c>
+      <c r="I2">
+        <v>0.03614862484094661</v>
+      </c>
+      <c r="J2">
+        <v>0.06866819944461157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2205148392901815</v>
+        <v>-0.1684992448224028</v>
       </c>
       <c r="C3">
-        <v>0.1298835061425582</v>
+        <v>-0.09087992349827458</v>
       </c>
       <c r="D3">
-        <v>0.03007751504397486</v>
+        <v>0.04448651230797748</v>
       </c>
       <c r="E3">
-        <v>0.3274057527784522</v>
+        <v>-0.01093198628753653</v>
       </c>
       <c r="F3">
-        <v>0.02731611804262097</v>
+        <v>-0.3724223393452231</v>
       </c>
       <c r="G3">
-        <v>-0.1074325799987329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.08771051804507961</v>
+      </c>
+      <c r="H3">
+        <v>-0.2765825099948055</v>
+      </c>
+      <c r="I3">
+        <v>0.2042496077084055</v>
+      </c>
+      <c r="J3">
+        <v>0.2278762636610726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09643634103599433</v>
+        <v>-0.07559329751742266</v>
       </c>
       <c r="C4">
-        <v>0.03831754177737873</v>
+        <v>-0.03410054515793484</v>
       </c>
       <c r="D4">
-        <v>-0.02805814721323884</v>
+        <v>0.03078023254981537</v>
       </c>
       <c r="E4">
-        <v>0.07474651297870637</v>
+        <v>0.03702987003439735</v>
       </c>
       <c r="F4">
-        <v>0.03739348979607564</v>
+        <v>-0.08099519679758506</v>
       </c>
       <c r="G4">
-        <v>-0.035713004540598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04621914761577701</v>
+      </c>
+      <c r="H4">
+        <v>-0.02435000909879101</v>
+      </c>
+      <c r="I4">
+        <v>0.04293091300261714</v>
+      </c>
+      <c r="J4">
+        <v>0.05711393123544532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01783559413604975</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.007666510762694563</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.01025135124952085</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005443175922837399</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.002287089997256294</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02145856493035331</v>
+      </c>
+      <c r="H6">
+        <v>-0.0008490566677855572</v>
+      </c>
+      <c r="I6">
+        <v>-0.01207908408077306</v>
+      </c>
+      <c r="J6">
+        <v>0.001874436635503032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04311017210831853</v>
+        <v>-0.0352854109573721</v>
       </c>
       <c r="C7">
-        <v>0.009535981877222197</v>
+        <v>-0.001765715981378345</v>
       </c>
       <c r="D7">
-        <v>-0.0342011772032711</v>
+        <v>0.04033431492632538</v>
       </c>
       <c r="E7">
-        <v>0.07415885329809399</v>
+        <v>0.02859248180783961</v>
       </c>
       <c r="F7">
-        <v>-0.05367184348900013</v>
+        <v>-0.05550307931458635</v>
       </c>
       <c r="G7">
-        <v>0.001635913990897844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.006562615098923143</v>
+      </c>
+      <c r="H7">
+        <v>-0.04560125437723196</v>
+      </c>
+      <c r="I7">
+        <v>0.005044574897834995</v>
+      </c>
+      <c r="J7">
+        <v>0.05474071689374225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04243532404209591</v>
+        <v>-0.03073374520761412</v>
       </c>
       <c r="C8">
-        <v>0.0495692177085912</v>
+        <v>-0.03926299653658762</v>
       </c>
       <c r="D8">
-        <v>-0.007559694835555747</v>
+        <v>0.03314083887738399</v>
       </c>
       <c r="E8">
-        <v>0.06775582832354947</v>
+        <v>0.01774871948463146</v>
       </c>
       <c r="F8">
-        <v>0.006970241980826419</v>
+        <v>-0.07191453654612166</v>
       </c>
       <c r="G8">
-        <v>-0.01694007655153532</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02121152951960725</v>
+      </c>
+      <c r="H8">
+        <v>-0.04543218233247347</v>
+      </c>
+      <c r="I8">
+        <v>0.04436828682655649</v>
+      </c>
+      <c r="J8">
+        <v>0.05876623716833376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08414534912980084</v>
+        <v>-0.06250385951951236</v>
       </c>
       <c r="C9">
-        <v>0.03552588475737165</v>
+        <v>-0.02932880503276107</v>
       </c>
       <c r="D9">
-        <v>-0.03555302366036922</v>
+        <v>0.03381897451881243</v>
       </c>
       <c r="E9">
-        <v>0.05851166626639235</v>
+        <v>0.03305946191424042</v>
       </c>
       <c r="F9">
-        <v>0.02481335733052477</v>
+        <v>-0.08146416484115343</v>
       </c>
       <c r="G9">
-        <v>-0.0516787858426203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.0427773789809336</v>
+      </c>
+      <c r="H9">
+        <v>-0.02133447806707285</v>
+      </c>
+      <c r="I9">
+        <v>0.02234334193897257</v>
+      </c>
+      <c r="J9">
+        <v>0.0382525460991197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.0006960426738182356</v>
+        <v>-0.02138177809947272</v>
       </c>
       <c r="C10">
-        <v>-0.1561539495482351</v>
+        <v>0.1359920030052919</v>
       </c>
       <c r="D10">
-        <v>0.02869119948156294</v>
+        <v>-0.07552456409088119</v>
       </c>
       <c r="E10">
-        <v>0.07647695960465727</v>
+        <v>-0.02523966429894388</v>
       </c>
       <c r="F10">
-        <v>0.01864731671371487</v>
+        <v>-0.0721795230458028</v>
       </c>
       <c r="G10">
-        <v>0.02261254589133914</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02357658051941907</v>
+      </c>
+      <c r="H10">
+        <v>-0.002896866548683862</v>
+      </c>
+      <c r="I10">
+        <v>0.1073653225309718</v>
+      </c>
+      <c r="J10">
+        <v>-0.0170383679869813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.0568624884167818</v>
+        <v>-0.04980728580905357</v>
       </c>
       <c r="C11">
-        <v>0.01167573291070642</v>
+        <v>-0.02738164619644442</v>
       </c>
       <c r="D11">
-        <v>0.006741134650210941</v>
+        <v>0.00488966227435919</v>
       </c>
       <c r="E11">
-        <v>0.04292360779365192</v>
+        <v>0.007478300270527601</v>
       </c>
       <c r="F11">
-        <v>0.004988915871887877</v>
+        <v>-0.04011490409920071</v>
       </c>
       <c r="G11">
-        <v>0.01894473313127333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.006466040479570726</v>
+      </c>
+      <c r="H11">
+        <v>-0.001839538914303943</v>
+      </c>
+      <c r="I11">
+        <v>-0.005186880747558797</v>
+      </c>
+      <c r="J11">
+        <v>0.04559074499774291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04477641581883163</v>
+        <v>-0.04705848607940227</v>
       </c>
       <c r="C12">
-        <v>0.01791321773145717</v>
+        <v>-0.02132165923853472</v>
       </c>
       <c r="D12">
-        <v>0.003046715252969533</v>
+        <v>0.01387906706880585</v>
       </c>
       <c r="E12">
-        <v>0.03125848134066714</v>
+        <v>0.01031656117104853</v>
       </c>
       <c r="F12">
-        <v>-0.004182328927612172</v>
+        <v>-0.01796779628510851</v>
       </c>
       <c r="G12">
-        <v>-0.002399901279621783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.00196137968160598</v>
+      </c>
+      <c r="H12">
+        <v>-0.002709445622256254</v>
+      </c>
+      <c r="I12">
+        <v>-0.009398872801363015</v>
+      </c>
+      <c r="J12">
+        <v>0.02913654229420355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.063423391814903</v>
+        <v>-0.04349006575195252</v>
       </c>
       <c r="C13">
-        <v>0.02358237900975414</v>
+        <v>-0.02969820492970718</v>
       </c>
       <c r="D13">
-        <v>0.005021664427601506</v>
+        <v>-0.003314646012693621</v>
       </c>
       <c r="E13">
-        <v>0.1085358346632595</v>
+        <v>0.008628045139866897</v>
       </c>
       <c r="F13">
-        <v>0.01353481801038139</v>
+        <v>-0.1040591255711364</v>
       </c>
       <c r="G13">
-        <v>0.000181716653289298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02052224088791713</v>
+      </c>
+      <c r="H13">
+        <v>-0.0467345398047613</v>
+      </c>
+      <c r="I13">
+        <v>0.01777650968047798</v>
+      </c>
+      <c r="J13">
+        <v>0.05947485228807409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03378430798868583</v>
+        <v>-0.02809417455013983</v>
       </c>
       <c r="C14">
-        <v>0.01307725267849288</v>
+        <v>-0.0135834433100796</v>
       </c>
       <c r="D14">
-        <v>-0.02626429434681052</v>
+        <v>0.01200825620326724</v>
       </c>
       <c r="E14">
-        <v>0.02714113401911172</v>
+        <v>0.02578935154088917</v>
       </c>
       <c r="F14">
-        <v>0.008138695212765794</v>
+        <v>-0.04023422476213041</v>
       </c>
       <c r="G14">
-        <v>0.03138315953093807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02896604978026424</v>
+      </c>
+      <c r="H14">
+        <v>-0.05248083162687959</v>
+      </c>
+      <c r="I14">
+        <v>0.01331231391444681</v>
+      </c>
+      <c r="J14">
+        <v>0.01610113343194665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04727989632919976</v>
+        <v>-0.04489537948953522</v>
       </c>
       <c r="C16">
-        <v>0.02788650950391157</v>
+        <v>-0.03279923233660216</v>
       </c>
       <c r="D16">
-        <v>0.01014368060365238</v>
+        <v>0.0140230020220294</v>
       </c>
       <c r="E16">
-        <v>0.03486757305782066</v>
+        <v>0.004184232742312441</v>
       </c>
       <c r="F16">
-        <v>-0.00726328758218422</v>
+        <v>-0.03377520316122992</v>
       </c>
       <c r="G16">
-        <v>0.005770802049852718</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005725317608253419</v>
+      </c>
+      <c r="H16">
+        <v>-0.008476861969301266</v>
+      </c>
+      <c r="I16">
+        <v>-0.005750808403134475</v>
+      </c>
+      <c r="J16">
+        <v>0.0384381760479147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05061204723948299</v>
+        <v>-0.04759076870382203</v>
       </c>
       <c r="C19">
-        <v>0.03595124430487351</v>
+        <v>-0.03984950947801452</v>
       </c>
       <c r="D19">
-        <v>0.001728859163570008</v>
+        <v>0.01754907502046086</v>
       </c>
       <c r="E19">
-        <v>0.07555097445118844</v>
+        <v>0.0172169810962781</v>
       </c>
       <c r="F19">
-        <v>-0.0189063130141422</v>
+        <v>-0.08106505247186553</v>
       </c>
       <c r="G19">
-        <v>0.02690399488243434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.009541820554125974</v>
+      </c>
+      <c r="H19">
+        <v>-0.08271233659945494</v>
+      </c>
+      <c r="I19">
+        <v>0.04260863879795843</v>
+      </c>
+      <c r="J19">
+        <v>0.04544878306383983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03608179232151892</v>
+        <v>-0.01901602431279197</v>
       </c>
       <c r="C20">
-        <v>0.03972283076605274</v>
+        <v>-0.02484960779057108</v>
       </c>
       <c r="D20">
-        <v>-0.01749318421081361</v>
+        <v>0.01965340224498226</v>
       </c>
       <c r="E20">
-        <v>0.06436366044423804</v>
+        <v>0.01890683862468243</v>
       </c>
       <c r="F20">
-        <v>-0.01338007675665697</v>
+        <v>-0.0662548352685631</v>
       </c>
       <c r="G20">
-        <v>0.01107037483631212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01314392476823572</v>
+      </c>
+      <c r="H20">
+        <v>-0.07082034145594435</v>
+      </c>
+      <c r="I20">
+        <v>0.02903458022009123</v>
+      </c>
+      <c r="J20">
+        <v>0.07656109477282941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03991680174263858</v>
+        <v>-0.02550400854255095</v>
       </c>
       <c r="C21">
-        <v>0.03086469474183502</v>
+        <v>-0.02407587746265374</v>
       </c>
       <c r="D21">
-        <v>-0.005191338043901362</v>
+        <v>0.02840320360901306</v>
       </c>
       <c r="E21">
-        <v>0.09464212921238221</v>
+        <v>0.007204484757696976</v>
       </c>
       <c r="F21">
-        <v>0.04605133883523824</v>
+        <v>-0.07560528908397729</v>
       </c>
       <c r="G21">
-        <v>0.01509345996771905</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03396463672717698</v>
+      </c>
+      <c r="H21">
+        <v>-0.02398367537288485</v>
+      </c>
+      <c r="I21">
+        <v>-0.002085228647788815</v>
+      </c>
+      <c r="J21">
+        <v>0.03388600607937885</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04922072026929899</v>
+        <v>-0.04396822331080392</v>
       </c>
       <c r="C24">
-        <v>0.01881356882157485</v>
+        <v>-0.02158046341383738</v>
       </c>
       <c r="D24">
-        <v>0.002948928225638317</v>
+        <v>0.008443345361872285</v>
       </c>
       <c r="E24">
-        <v>0.04471322090366795</v>
+        <v>0.009238797062242461</v>
       </c>
       <c r="F24">
-        <v>-0.00565254679374412</v>
+        <v>-0.04069222325397997</v>
       </c>
       <c r="G24">
-        <v>-0.001248310518223601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.004479740072287405</v>
+      </c>
+      <c r="H24">
+        <v>-0.007352891282004603</v>
+      </c>
+      <c r="I24">
+        <v>-0.003238760752922135</v>
+      </c>
+      <c r="J24">
+        <v>0.04408457734915812</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05204557956426071</v>
+        <v>-0.04674391192916341</v>
       </c>
       <c r="C25">
-        <v>0.008788106880134514</v>
+        <v>-0.02142673923622413</v>
       </c>
       <c r="D25">
-        <v>0.004690433963162391</v>
+        <v>0.007102358187642654</v>
       </c>
       <c r="E25">
-        <v>0.04222487582526981</v>
+        <v>0.007533156882918245</v>
       </c>
       <c r="F25">
-        <v>0.0069849903159588</v>
+        <v>-0.04427017661042888</v>
       </c>
       <c r="G25">
-        <v>0.007410505754196862</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.003482038886516543</v>
+      </c>
+      <c r="H25">
+        <v>0.0002143581089947223</v>
+      </c>
+      <c r="I25">
+        <v>-0.006723993688829633</v>
+      </c>
+      <c r="J25">
+        <v>0.03777423764212762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.0163714756043004</v>
+        <v>-0.01616066286596618</v>
       </c>
       <c r="C26">
-        <v>0.02620694995717188</v>
+        <v>-0.02342747939735473</v>
       </c>
       <c r="D26">
-        <v>-0.001634446059559872</v>
+        <v>0.007049513817917659</v>
       </c>
       <c r="E26">
-        <v>0.03506993593166759</v>
+        <v>0.0005760432017757863</v>
       </c>
       <c r="F26">
-        <v>0.01851212242076252</v>
+        <v>-0.04570722851451098</v>
       </c>
       <c r="G26">
-        <v>0.02372288684664203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02048200864328407</v>
+      </c>
+      <c r="H26">
+        <v>-0.03251888419921369</v>
+      </c>
+      <c r="I26">
+        <v>0.0006128237626682332</v>
+      </c>
+      <c r="J26">
+        <v>0.04002303395654638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.11810630765161</v>
+        <v>-0.08038004694261508</v>
       </c>
       <c r="C27">
-        <v>0.03208663327158974</v>
+        <v>-0.02710372879560631</v>
       </c>
       <c r="D27">
-        <v>-0.02359876899895094</v>
+        <v>0.01553011073604066</v>
       </c>
       <c r="E27">
-        <v>0.09839431129276059</v>
+        <v>0.03325433818807755</v>
       </c>
       <c r="F27">
-        <v>0.009444221699846211</v>
+        <v>-0.06829885699530056</v>
       </c>
       <c r="G27">
-        <v>-0.009044107669338728</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01690777204750407</v>
+      </c>
+      <c r="H27">
+        <v>-0.01047289140639359</v>
+      </c>
+      <c r="I27">
+        <v>0.02700336689713318</v>
+      </c>
+      <c r="J27">
+        <v>0.04205695263509378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.006286724019339831</v>
+        <v>-0.03991443396873853</v>
       </c>
       <c r="C28">
-        <v>-0.2417086704390077</v>
+        <v>0.2108507281958049</v>
       </c>
       <c r="D28">
-        <v>0.03189893378253519</v>
+        <v>-0.1060575906830073</v>
       </c>
       <c r="E28">
-        <v>0.04998412435476922</v>
+        <v>-0.04041009215310148</v>
       </c>
       <c r="F28">
-        <v>0.02572217545523402</v>
+        <v>-0.05827936462683069</v>
       </c>
       <c r="G28">
-        <v>0.002244391588081834</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02480949609193445</v>
+      </c>
+      <c r="H28">
+        <v>0.003367230200417085</v>
+      </c>
+      <c r="I28">
+        <v>0.1537136827649232</v>
+      </c>
+      <c r="J28">
+        <v>-0.01253641994687506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.0233824096867816</v>
+        <v>-0.02278335964554234</v>
       </c>
       <c r="C29">
-        <v>0.02035852319494217</v>
+        <v>-0.01412530525505381</v>
       </c>
       <c r="D29">
-        <v>-0.03043276758842252</v>
+        <v>0.01754504610095501</v>
       </c>
       <c r="E29">
-        <v>0.02858514192031784</v>
+        <v>0.02694153269720757</v>
       </c>
       <c r="F29">
-        <v>0.01434039948011034</v>
+        <v>-0.03624582254023819</v>
       </c>
       <c r="G29">
-        <v>0.02354620894433708</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.030321602391804</v>
+      </c>
+      <c r="H29">
+        <v>-0.04936994191730935</v>
+      </c>
+      <c r="I29">
+        <v>0.006804627956262412</v>
+      </c>
+      <c r="J29">
+        <v>0.01138919146149861</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1080510681774133</v>
+        <v>-0.09245984728293016</v>
       </c>
       <c r="C30">
-        <v>0.0176767441484428</v>
+        <v>-0.05812259450443139</v>
       </c>
       <c r="D30">
-        <v>-0.02455132918632352</v>
+        <v>-0.01627071680220036</v>
       </c>
       <c r="E30">
-        <v>0.1092589238102814</v>
+        <v>0.03053051927368362</v>
       </c>
       <c r="F30">
-        <v>-0.002079557156217061</v>
+        <v>-0.1027527108587504</v>
       </c>
       <c r="G30">
-        <v>0.03436790293914228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01436323526156595</v>
+      </c>
+      <c r="H30">
+        <v>-0.02182314632987389</v>
+      </c>
+      <c r="I30">
+        <v>-0.007845151825596077</v>
+      </c>
+      <c r="J30">
+        <v>0.03460805730304684</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.06343295525575754</v>
+        <v>-0.0628403499728338</v>
       </c>
       <c r="C31">
-        <v>0.01833658986771173</v>
+        <v>-0.02370413383623105</v>
       </c>
       <c r="D31">
-        <v>-0.01702954359789227</v>
+        <v>-0.001623832833589908</v>
       </c>
       <c r="E31">
-        <v>-0.01674760099191982</v>
+        <v>0.02228414129755513</v>
       </c>
       <c r="F31">
-        <v>0.0100839161471862</v>
+        <v>-0.001547107637562901</v>
       </c>
       <c r="G31">
-        <v>0.0574684179167113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04111300135114059</v>
+      </c>
+      <c r="H31">
+        <v>-0.03193872758679325</v>
+      </c>
+      <c r="I31">
+        <v>0.01311309065119084</v>
+      </c>
+      <c r="J31">
+        <v>0.01545819820526027</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06797792771476872</v>
+        <v>-0.04593465991553076</v>
       </c>
       <c r="C32">
-        <v>0.03115786387183525</v>
+        <v>-0.03821566951361222</v>
       </c>
       <c r="D32">
-        <v>-0.01016206171806266</v>
+        <v>0.0336948092376657</v>
       </c>
       <c r="E32">
-        <v>0.1078097574475367</v>
+        <v>0.02791408629917749</v>
       </c>
       <c r="F32">
-        <v>-0.01232131409425867</v>
+        <v>-0.0872386874034794</v>
       </c>
       <c r="G32">
-        <v>0.02282583979666087</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01313322510752608</v>
+      </c>
+      <c r="H32">
+        <v>-0.03948407222819402</v>
+      </c>
+      <c r="I32">
+        <v>0.02989560088380143</v>
+      </c>
+      <c r="J32">
+        <v>0.04623079708406456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06792155574669292</v>
+        <v>-0.05882001802501205</v>
       </c>
       <c r="C33">
-        <v>0.04114582519980357</v>
+        <v>-0.05398479648075206</v>
       </c>
       <c r="D33">
-        <v>-0.01121805305380073</v>
+        <v>0.004424623490905366</v>
       </c>
       <c r="E33">
-        <v>0.07166155714053143</v>
+        <v>0.00942839812013462</v>
       </c>
       <c r="F33">
-        <v>0.04580301637352722</v>
+        <v>-0.07760318011937341</v>
       </c>
       <c r="G33">
-        <v>0.01443262764965275</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03519029540231463</v>
+      </c>
+      <c r="H33">
+        <v>-0.03677251847706255</v>
+      </c>
+      <c r="I33">
+        <v>-0.004128063076050387</v>
+      </c>
+      <c r="J33">
+        <v>0.05398771626548021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04755336093981597</v>
+        <v>-0.04665723412359745</v>
       </c>
       <c r="C34">
-        <v>0.01834184470050265</v>
+        <v>-0.02680471423669097</v>
       </c>
       <c r="D34">
-        <v>0.001226902163591449</v>
+        <v>0.01614782853007207</v>
       </c>
       <c r="E34">
-        <v>0.02705185414070113</v>
+        <v>0.0145574853284145</v>
       </c>
       <c r="F34">
-        <v>-0.005329290695347509</v>
+        <v>-0.03122606934201704</v>
       </c>
       <c r="G34">
-        <v>0.008048882157569754</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0002862139398671865</v>
+      </c>
+      <c r="H34">
+        <v>-0.0115109121208276</v>
+      </c>
+      <c r="I34">
+        <v>-0.005333028100189222</v>
+      </c>
+      <c r="J34">
+        <v>0.03420348743371457</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01384936329325633</v>
+        <v>-0.0160770134401118</v>
       </c>
       <c r="C36">
-        <v>-0.005210436881555497</v>
+        <v>-6.015457699243393e-06</v>
       </c>
       <c r="D36">
-        <v>-0.00530426586859705</v>
+        <v>0.005027365449548852</v>
       </c>
       <c r="E36">
-        <v>0.02385812202264872</v>
+        <v>0.009805532991661045</v>
       </c>
       <c r="F36">
-        <v>0.008132988355445011</v>
+        <v>-0.02855041876505015</v>
       </c>
       <c r="G36">
-        <v>0.01779198761029866</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02386250202206233</v>
+      </c>
+      <c r="H36">
+        <v>-0.02789098610677648</v>
+      </c>
+      <c r="I36">
+        <v>-0.002580350590163555</v>
+      </c>
+      <c r="J36">
+        <v>0.004157645285610966</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05759593369785139</v>
+        <v>-0.03562181170414577</v>
       </c>
       <c r="C38">
-        <v>0.0126892114448948</v>
+        <v>-0.01252031338375024</v>
       </c>
       <c r="D38">
-        <v>-0.02555487852933425</v>
+        <v>0.008849635215379865</v>
       </c>
       <c r="E38">
-        <v>0.03192830942346362</v>
+        <v>0.01276459455707406</v>
       </c>
       <c r="F38">
-        <v>0.002957763945403306</v>
+        <v>-0.05040896807141607</v>
       </c>
       <c r="G38">
-        <v>-0.02664317426147832</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02817386390393347</v>
+      </c>
+      <c r="H38">
+        <v>-0.01365814817222526</v>
+      </c>
+      <c r="I38">
+        <v>-0.0111636811956048</v>
+      </c>
+      <c r="J38">
+        <v>0.004432098941226049</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07326877882056523</v>
+        <v>-0.05864988707230583</v>
       </c>
       <c r="C39">
-        <v>0.01636598217874379</v>
+        <v>-0.03950696060844872</v>
       </c>
       <c r="D39">
-        <v>-0.002963178627604884</v>
+        <v>0.01183347879522621</v>
       </c>
       <c r="E39">
-        <v>0.04308624504672313</v>
+        <v>0.01632531170042203</v>
       </c>
       <c r="F39">
-        <v>0.01765546842118522</v>
+        <v>-0.05550784292301616</v>
       </c>
       <c r="G39">
-        <v>0.008131564945572553</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01682719354836194</v>
+      </c>
+      <c r="H39">
+        <v>-0.0008518166718465917</v>
+      </c>
+      <c r="I39">
+        <v>-0.02581187391335941</v>
+      </c>
+      <c r="J39">
+        <v>0.04874017818629636</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07572879324920576</v>
+        <v>-0.0582858805391131</v>
       </c>
       <c r="C40">
-        <v>0.03956794482947716</v>
+        <v>-0.04714732116265659</v>
       </c>
       <c r="D40">
-        <v>-0.009675281698925545</v>
+        <v>-0.001628737484949628</v>
       </c>
       <c r="E40">
-        <v>0.1053041378922813</v>
+        <v>0.02281787409050635</v>
       </c>
       <c r="F40">
-        <v>0.03022118750465289</v>
+        <v>-0.09520935279965408</v>
       </c>
       <c r="G40">
-        <v>-0.03703894674898239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02223604406408085</v>
+      </c>
+      <c r="H40">
+        <v>-0.05321372894552168</v>
+      </c>
+      <c r="I40">
+        <v>0.02407727331319962</v>
+      </c>
+      <c r="J40">
+        <v>0.1139598484049786</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003486676361603257</v>
+        <v>-0.003147761247533334</v>
       </c>
       <c r="C41">
-        <v>0.01486022536764966</v>
+        <v>-0.01061122388230842</v>
       </c>
       <c r="D41">
-        <v>-0.02450874307744088</v>
+        <v>0.006194253134961293</v>
       </c>
       <c r="E41">
-        <v>0.01472751881985563</v>
+        <v>0.008345261047834654</v>
       </c>
       <c r="F41">
-        <v>0.03101585994776689</v>
+        <v>-0.01466624624192137</v>
       </c>
       <c r="G41">
-        <v>0.02935364791001484</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03658920749487097</v>
+      </c>
+      <c r="H41">
+        <v>-0.03233539732461385</v>
+      </c>
+      <c r="I41">
+        <v>0.02477289992753571</v>
+      </c>
+      <c r="J41">
+        <v>0.009881514035500291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1442343840011233</v>
+        <v>-0.21955366334593</v>
       </c>
       <c r="C42">
-        <v>0.2261763535049386</v>
+        <v>-0.2029865199937879</v>
       </c>
       <c r="D42">
-        <v>0.9247560111456734</v>
+        <v>0.03293032926186108</v>
       </c>
       <c r="E42">
-        <v>-0.08859620577011849</v>
+        <v>-0.9260942741115189</v>
       </c>
       <c r="F42">
-        <v>-0.04235924615093499</v>
+        <v>0.1482354488811644</v>
       </c>
       <c r="G42">
-        <v>0.07624595234342328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.003238498106721172</v>
+      </c>
+      <c r="H42">
+        <v>-0.003910998831056203</v>
+      </c>
+      <c r="I42">
+        <v>0.055210274513097</v>
+      </c>
+      <c r="J42">
+        <v>0.02174527248260966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.005362794142389432</v>
+        <v>-0.005538461969532232</v>
       </c>
       <c r="C43">
-        <v>0.01742459033391052</v>
+        <v>-0.01422468837352073</v>
       </c>
       <c r="D43">
-        <v>-0.01666549064338834</v>
+        <v>0.004940126370836198</v>
       </c>
       <c r="E43">
-        <v>0.03738961757160025</v>
+        <v>0.008688614202615312</v>
       </c>
       <c r="F43">
-        <v>0.007148120632068525</v>
+        <v>-0.02955780706741606</v>
       </c>
       <c r="G43">
-        <v>0.01986265727523492</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02078601665754096</v>
+      </c>
+      <c r="H43">
+        <v>-0.0316559428881675</v>
+      </c>
+      <c r="I43">
+        <v>0.0179230642710924</v>
+      </c>
+      <c r="J43">
+        <v>0.01979771583774999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04011334553142753</v>
+        <v>-0.02894686224493013</v>
       </c>
       <c r="C44">
-        <v>0.04897018941805104</v>
+        <v>-0.03832730560450297</v>
       </c>
       <c r="D44">
-        <v>-0.01732856199927133</v>
+        <v>0.02040354712498405</v>
       </c>
       <c r="E44">
-        <v>0.122604377283523</v>
+        <v>0.01068118081131717</v>
       </c>
       <c r="F44">
-        <v>0.08867997556114951</v>
+        <v>-0.1226701865478203</v>
       </c>
       <c r="G44">
-        <v>0.0330453307467375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06145047075308471</v>
+      </c>
+      <c r="H44">
+        <v>-0.1012364167847457</v>
+      </c>
+      <c r="I44">
+        <v>0.02546823342911193</v>
+      </c>
+      <c r="J44">
+        <v>0.03014119744380902</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02780896913379763</v>
+        <v>-0.0256691677001267</v>
       </c>
       <c r="C46">
-        <v>0.01864885936154531</v>
+        <v>-0.03261881435152841</v>
       </c>
       <c r="D46">
-        <v>-0.02936775742275132</v>
+        <v>0.01365831268606976</v>
       </c>
       <c r="E46">
-        <v>0.02566098195683908</v>
+        <v>0.02787159560952186</v>
       </c>
       <c r="F46">
-        <v>0.02256721649721203</v>
+        <v>-0.04551768892003083</v>
       </c>
       <c r="G46">
-        <v>0.02898362644256813</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02556660729832707</v>
+      </c>
+      <c r="H46">
+        <v>-0.05265017201807244</v>
+      </c>
+      <c r="I46">
+        <v>0.004465202961565438</v>
+      </c>
+      <c r="J46">
+        <v>0.02215183380688944</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.0884704216556946</v>
+        <v>-0.09215454060137657</v>
       </c>
       <c r="C47">
-        <v>0.01142846147413936</v>
+        <v>-0.01659422221396993</v>
       </c>
       <c r="D47">
-        <v>-0.0156393853889527</v>
+        <v>-1.803561530778275e-05</v>
       </c>
       <c r="E47">
-        <v>-0.0208690420314539</v>
+        <v>0.02536701747958616</v>
       </c>
       <c r="F47">
-        <v>0.009795851541814607</v>
+        <v>0.01185763498913465</v>
       </c>
       <c r="G47">
-        <v>0.02954101327727263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04294723228312027</v>
+      </c>
+      <c r="H47">
+        <v>-0.0559062634265552</v>
+      </c>
+      <c r="I47">
+        <v>0.0200551676772545</v>
+      </c>
+      <c r="J47">
+        <v>0.02526868414182593</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.0186508939902489</v>
+        <v>-0.01912909350520138</v>
       </c>
       <c r="C48">
-        <v>0.02071285446379877</v>
+        <v>-0.01742088795325838</v>
       </c>
       <c r="D48">
-        <v>-0.01417586737492905</v>
+        <v>0.01029583512149052</v>
       </c>
       <c r="E48">
-        <v>0.02802979559073199</v>
+        <v>0.01327863681714722</v>
       </c>
       <c r="F48">
-        <v>0.009604333818696588</v>
+        <v>-0.03017632401710129</v>
       </c>
       <c r="G48">
-        <v>0.007332224091652783</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01510511204284564</v>
+      </c>
+      <c r="H48">
+        <v>-0.02172611993447044</v>
+      </c>
+      <c r="I48">
+        <v>0.01487009706221248</v>
+      </c>
+      <c r="J48">
+        <v>0.01377007102339431</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.0900832596959984</v>
+        <v>-0.08885823867043717</v>
       </c>
       <c r="C50">
-        <v>0.03898421937263287</v>
+        <v>-0.02975170031782663</v>
       </c>
       <c r="D50">
-        <v>-0.02421015435090759</v>
+        <v>0.02488418464132054</v>
       </c>
       <c r="E50">
-        <v>-0.01311772651080545</v>
+        <v>0.02368809181147244</v>
       </c>
       <c r="F50">
-        <v>-0.003790834502674967</v>
+        <v>0.004466778615306646</v>
       </c>
       <c r="G50">
-        <v>0.03900518250060836</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.001456900527414467</v>
+      </c>
+      <c r="H50">
+        <v>-0.04008469045554248</v>
+      </c>
+      <c r="I50">
+        <v>-0.007992170305834581</v>
+      </c>
+      <c r="J50">
+        <v>0.009606503123242878</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06056919515613089</v>
+        <v>-0.04527041995723803</v>
       </c>
       <c r="C51">
-        <v>-0.0238926135115227</v>
+        <v>-0.0007494873268455122</v>
       </c>
       <c r="D51">
-        <v>0.009763057900721768</v>
+        <v>-0.01572762998029371</v>
       </c>
       <c r="E51">
-        <v>0.08466898580281658</v>
+        <v>0.009384402251965783</v>
       </c>
       <c r="F51">
-        <v>0.0458960246323192</v>
+        <v>-0.09314507018363805</v>
       </c>
       <c r="G51">
-        <v>0.0628195718296372</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05217722448836338</v>
+      </c>
+      <c r="H51">
+        <v>-0.05331430003017668</v>
+      </c>
+      <c r="I51">
+        <v>0.03795692207226011</v>
+      </c>
+      <c r="J51">
+        <v>0.04470339141520286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1445681762501171</v>
+        <v>-0.126820138409225</v>
       </c>
       <c r="C53">
-        <v>0.01015499910313011</v>
+        <v>-0.03337788299249182</v>
       </c>
       <c r="D53">
-        <v>-0.04824553369546521</v>
+        <v>0.006536996693959704</v>
       </c>
       <c r="E53">
-        <v>-0.04888269990404139</v>
+        <v>0.04898384429262138</v>
       </c>
       <c r="F53">
-        <v>-0.007648037745264434</v>
+        <v>0.04044881492292093</v>
       </c>
       <c r="G53">
-        <v>0.03596516616296031</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02301416952770683</v>
+      </c>
+      <c r="H53">
+        <v>0.0005961526897550444</v>
+      </c>
+      <c r="I53">
+        <v>0.03842768746308653</v>
+      </c>
+      <c r="J53">
+        <v>0.03118538236453637</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02901825877454346</v>
+        <v>-0.0263240980299092</v>
       </c>
       <c r="C54">
-        <v>0.002975801428833771</v>
+        <v>-0.00106210903667948</v>
       </c>
       <c r="D54">
-        <v>-0.02604961719472078</v>
+        <v>0.005403521366906474</v>
       </c>
       <c r="E54">
-        <v>0.03416024927183688</v>
+        <v>0.02724371119286564</v>
       </c>
       <c r="F54">
-        <v>0.04906571790203301</v>
+        <v>-0.03758869025647368</v>
       </c>
       <c r="G54">
-        <v>0.01589599012852623</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05208020870016435</v>
+      </c>
+      <c r="H54">
+        <v>-0.04182806784664892</v>
+      </c>
+      <c r="I54">
+        <v>0.03059496236128416</v>
+      </c>
+      <c r="J54">
+        <v>-0.006049344763914066</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09941931826627215</v>
+        <v>-0.1012801808212741</v>
       </c>
       <c r="C55">
-        <v>-0.003044851726965326</v>
+        <v>-0.01405536546567107</v>
       </c>
       <c r="D55">
-        <v>-0.03773906269454134</v>
+        <v>0.01723440346295703</v>
       </c>
       <c r="E55">
-        <v>-0.01068932791812237</v>
+        <v>0.03173431727829002</v>
       </c>
       <c r="F55">
-        <v>-0.03401830267350226</v>
+        <v>0.02905785854836792</v>
       </c>
       <c r="G55">
-        <v>-0.01049764054240192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.005524207197857667</v>
+      </c>
+      <c r="H55">
+        <v>-0.01442846965021904</v>
+      </c>
+      <c r="I55">
+        <v>0.01956736635523807</v>
+      </c>
+      <c r="J55">
+        <v>0.02849856202000648</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1794607468143152</v>
+        <v>-0.1684134358958956</v>
       </c>
       <c r="C56">
-        <v>-0.01527380899351985</v>
+        <v>-0.01230546644988253</v>
       </c>
       <c r="D56">
-        <v>-0.08595756539311178</v>
+        <v>0.00452069004743412</v>
       </c>
       <c r="E56">
-        <v>-0.09595714726217323</v>
+        <v>0.08460976088662153</v>
       </c>
       <c r="F56">
-        <v>-0.08073737805704762</v>
+        <v>0.08728681190411146</v>
       </c>
       <c r="G56">
-        <v>-0.000826305567447998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02709498693516111</v>
+      </c>
+      <c r="H56">
+        <v>0.04165588891285712</v>
+      </c>
+      <c r="I56">
+        <v>0.03139194625588473</v>
+      </c>
+      <c r="J56">
+        <v>0.03887068660171798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09400014188590126</v>
+        <v>-0.07070362846738229</v>
       </c>
       <c r="C57">
-        <v>0.02797886433290292</v>
+        <v>-0.03915739831517333</v>
       </c>
       <c r="D57">
-        <v>-0.03221490602230799</v>
+        <v>-0.001965789961545902</v>
       </c>
       <c r="E57">
-        <v>0.03682209302699426</v>
+        <v>0.01181209011542358</v>
       </c>
       <c r="F57">
-        <v>0.02785395009239452</v>
+        <v>-0.05975571518982269</v>
       </c>
       <c r="G57">
-        <v>0.04249894472515421</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02493293102881583</v>
+      </c>
+      <c r="H57">
+        <v>-0.0285744521582366</v>
+      </c>
+      <c r="I57">
+        <v>-0.003521492045608816</v>
+      </c>
+      <c r="J57">
+        <v>0.03989894427914693</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.179063354779624</v>
+        <v>-0.2047316771846643</v>
       </c>
       <c r="C58">
-        <v>0.02561092016006668</v>
+        <v>-0.1227346036874497</v>
       </c>
       <c r="D58">
-        <v>0.0282081676200149</v>
+        <v>-0.04349908650804943</v>
       </c>
       <c r="E58">
-        <v>0.125120727478105</v>
+        <v>-0.008034262073810874</v>
       </c>
       <c r="F58">
-        <v>-0.06187271493580997</v>
+        <v>-0.2420193860821385</v>
       </c>
       <c r="G58">
-        <v>0.02305018656712325</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1605449402976801</v>
+      </c>
+      <c r="H58">
+        <v>-0.3660197037925185</v>
+      </c>
+      <c r="I58">
+        <v>-0.2181374507554331</v>
+      </c>
+      <c r="J58">
+        <v>-0.7441762446761918</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.01576232284588524</v>
+        <v>-0.04038703840427434</v>
       </c>
       <c r="C59">
-        <v>-0.2007481873171033</v>
+        <v>0.1688068338843576</v>
       </c>
       <c r="D59">
-        <v>0.001165548676148487</v>
+        <v>-0.1059284994980034</v>
       </c>
       <c r="E59">
-        <v>0.06646473853713629</v>
+        <v>-0.003290841407166761</v>
       </c>
       <c r="F59">
-        <v>0.01426571248338597</v>
+        <v>-0.07441467083211105</v>
       </c>
       <c r="G59">
-        <v>0.004470433942229411</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.004070605302402774</v>
+      </c>
+      <c r="H59">
+        <v>0.01827661276416807</v>
+      </c>
+      <c r="I59">
+        <v>0.06021068857280705</v>
+      </c>
+      <c r="J59">
+        <v>-0.0186314380524359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.189671064602393</v>
+        <v>-0.1855930725685687</v>
       </c>
       <c r="C60">
-        <v>-0.0957563380097569</v>
+        <v>0.01990075047721884</v>
       </c>
       <c r="D60">
-        <v>-0.001848455203446172</v>
+        <v>-0.06761680177444293</v>
       </c>
       <c r="E60">
-        <v>0.188753199001097</v>
+        <v>0.01093679525545766</v>
       </c>
       <c r="F60">
-        <v>0.04896651797548441</v>
+        <v>-0.204100371570305</v>
       </c>
       <c r="G60">
-        <v>0.008112821512384207</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.0777560005177905</v>
+      </c>
+      <c r="H60">
+        <v>0.2716584327856548</v>
+      </c>
+      <c r="I60">
+        <v>-0.09632842982454963</v>
+      </c>
+      <c r="J60">
+        <v>0.02745156200265928</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.05115763081658832</v>
+        <v>-0.04030222364500724</v>
       </c>
       <c r="C61">
-        <v>0.004863183422830895</v>
+        <v>-0.02311468844589061</v>
       </c>
       <c r="D61">
-        <v>0.001810599056444507</v>
+        <v>0.01119421896100871</v>
       </c>
       <c r="E61">
-        <v>0.0396413778363633</v>
+        <v>0.005967489842284498</v>
       </c>
       <c r="F61">
-        <v>0.005333110394070257</v>
+        <v>-0.03894473602647288</v>
       </c>
       <c r="G61">
-        <v>0.004141665102468928</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.009005236818304075</v>
+      </c>
+      <c r="H61">
+        <v>0.002025588899833199</v>
+      </c>
+      <c r="I61">
+        <v>-0.03202026843531681</v>
+      </c>
+      <c r="J61">
+        <v>0.02726521010423878</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04632094438456113</v>
+        <v>-0.03122311441942</v>
       </c>
       <c r="C63">
-        <v>0.005657341133528996</v>
+        <v>-0.01713301977868275</v>
       </c>
       <c r="D63">
-        <v>-0.01833283395354124</v>
+        <v>0.006641266586415579</v>
       </c>
       <c r="E63">
-        <v>0.03667114390089995</v>
+        <v>0.0133130053463815</v>
       </c>
       <c r="F63">
-        <v>0.004588680414597689</v>
+        <v>-0.02869760525020774</v>
       </c>
       <c r="G63">
-        <v>0.02610480042508328</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01140382355580408</v>
+      </c>
+      <c r="H63">
+        <v>-0.05030254828709111</v>
+      </c>
+      <c r="I63">
+        <v>0.03897713833185852</v>
+      </c>
+      <c r="J63">
+        <v>0.03131479930324043</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.08069214153106465</v>
+        <v>-0.05799674672794804</v>
       </c>
       <c r="C64">
-        <v>0.0486928474466075</v>
+        <v>-0.03726053359856382</v>
       </c>
       <c r="D64">
-        <v>-0.06394976933227978</v>
+        <v>0.03346983582794086</v>
       </c>
       <c r="E64">
-        <v>0.06097602813082975</v>
+        <v>0.04419107358081675</v>
       </c>
       <c r="F64">
-        <v>0.05779728787273068</v>
+        <v>-0.05004603992591081</v>
       </c>
       <c r="G64">
-        <v>-0.02605406243285754</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05291419806885635</v>
+      </c>
+      <c r="H64">
+        <v>0.007503426890883025</v>
+      </c>
+      <c r="I64">
+        <v>0.04391392556423204</v>
+      </c>
+      <c r="J64">
+        <v>0.1012261274493473</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01980920354434804</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.00709254998345491</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.01062785018438225</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.005816712113268303</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001269873326701749</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02175266048341806</v>
+      </c>
+      <c r="H65">
+        <v>0.002518978409452488</v>
+      </c>
+      <c r="I65">
+        <v>-0.01372943376509045</v>
+      </c>
+      <c r="J65">
+        <v>0.003054833551626923</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.09125862809383135</v>
+        <v>-0.06949767268158238</v>
       </c>
       <c r="C66">
-        <v>0.02941357826691523</v>
+        <v>-0.05480882727702966</v>
       </c>
       <c r="D66">
-        <v>-0.0362630834836024</v>
+        <v>0.01047214780103945</v>
       </c>
       <c r="E66">
-        <v>0.07984415177418548</v>
+        <v>0.0447358330352905</v>
       </c>
       <c r="F66">
-        <v>0.04043561387640955</v>
+        <v>-0.06975507229650943</v>
       </c>
       <c r="G66">
-        <v>0.016998083686616</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01474659272104912</v>
+      </c>
+      <c r="H66">
+        <v>0.0005268820615267712</v>
+      </c>
+      <c r="I66">
+        <v>-0.03220920975799808</v>
+      </c>
+      <c r="J66">
+        <v>0.0753624122109682</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06541169452074533</v>
+        <v>-0.0473131588380678</v>
       </c>
       <c r="C67">
-        <v>-0.01140671723368326</v>
+        <v>0.001630923174951755</v>
       </c>
       <c r="D67">
-        <v>-0.0128180609877849</v>
+        <v>-0.003137196043346183</v>
       </c>
       <c r="E67">
-        <v>0.02690186344607227</v>
+        <v>0.01032587096536765</v>
       </c>
       <c r="F67">
-        <v>0.006262116553878673</v>
+        <v>-0.03940398354676252</v>
       </c>
       <c r="G67">
-        <v>-0.03665669781879413</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0348978174887733</v>
+      </c>
+      <c r="H67">
+        <v>0.008415035161729546</v>
+      </c>
+      <c r="I67">
+        <v>-0.03767272218639423</v>
+      </c>
+      <c r="J67">
+        <v>0.01598657585543327</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.01619628466589257</v>
+        <v>-0.0471846834934123</v>
       </c>
       <c r="C68">
-        <v>-0.2432880619078353</v>
+        <v>0.2044911046263489</v>
       </c>
       <c r="D68">
-        <v>0.01990588533616797</v>
+        <v>-0.1204653753581147</v>
       </c>
       <c r="E68">
-        <v>0.04671217520864345</v>
+        <v>-0.01798337681543857</v>
       </c>
       <c r="F68">
-        <v>0.008253874598157395</v>
+        <v>-0.05617933813221554</v>
       </c>
       <c r="G68">
-        <v>0.02351122765767828</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.002352152580654298</v>
+      </c>
+      <c r="H68">
+        <v>0.0139454820711427</v>
+      </c>
+      <c r="I68">
+        <v>0.1601658293514233</v>
+      </c>
+      <c r="J68">
+        <v>-0.0810411555782526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.07388270622136017</v>
+        <v>-0.07264953313529243</v>
       </c>
       <c r="C69">
-        <v>0.01355412276591939</v>
+        <v>-0.02122546392144248</v>
       </c>
       <c r="D69">
-        <v>-0.02345825590682184</v>
+        <v>0.002440599711014331</v>
       </c>
       <c r="E69">
-        <v>-0.01882451294023155</v>
+        <v>0.03123875243520338</v>
       </c>
       <c r="F69">
-        <v>-0.0007359651901849173</v>
+        <v>0.002265809970018978</v>
       </c>
       <c r="G69">
-        <v>0.02970973225082984</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02678098682062368</v>
+      </c>
+      <c r="H69">
+        <v>-0.02687428304417135</v>
+      </c>
+      <c r="I69">
+        <v>-0.0006961014302872884</v>
+      </c>
+      <c r="J69">
+        <v>0.03036072514720346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.01793553058359812</v>
+        <v>-0.05269893282408266</v>
       </c>
       <c r="C71">
-        <v>-0.2746512294787549</v>
+        <v>0.2153727877004021</v>
       </c>
       <c r="D71">
-        <v>0.026451441647588</v>
+        <v>-0.1341268568138668</v>
       </c>
       <c r="E71">
-        <v>0.08435003241520785</v>
+        <v>-0.03879777979163386</v>
       </c>
       <c r="F71">
-        <v>0.01569718192960417</v>
+        <v>-0.08030741209106378</v>
       </c>
       <c r="G71">
-        <v>0.0322309623622944</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01375920965001915</v>
+      </c>
+      <c r="H71">
+        <v>0.02751918202523173</v>
+      </c>
+      <c r="I71">
+        <v>0.1265488002428411</v>
+      </c>
+      <c r="J71">
+        <v>-0.03825789258723047</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1157747270933989</v>
+        <v>-0.1244362907787044</v>
       </c>
       <c r="C72">
-        <v>-0.00402881688828747</v>
+        <v>-0.02934628924122658</v>
       </c>
       <c r="D72">
-        <v>-0.04752315028363793</v>
+        <v>0.0032814505524593</v>
       </c>
       <c r="E72">
-        <v>0.09728415954808743</v>
+        <v>0.06106062439707689</v>
       </c>
       <c r="F72">
-        <v>-0.01110391619696881</v>
+        <v>-0.08239202907747868</v>
       </c>
       <c r="G72">
-        <v>-0.02053886584607289</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03994733123664233</v>
+      </c>
+      <c r="H72">
+        <v>0.01423375685859761</v>
+      </c>
+      <c r="I72">
+        <v>-0.07511719070157995</v>
+      </c>
+      <c r="J72">
+        <v>-0.08344290665966526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2910990077305332</v>
+        <v>-0.2700973585211771</v>
       </c>
       <c r="C73">
-        <v>-0.1631680679617136</v>
+        <v>0.03491699209281953</v>
       </c>
       <c r="D73">
-        <v>0.05293980836140721</v>
+        <v>-0.1254739641392788</v>
       </c>
       <c r="E73">
-        <v>0.336494431425737</v>
+        <v>-0.03228197456765897</v>
       </c>
       <c r="F73">
-        <v>0.033536126038486</v>
+        <v>-0.3066096826951299</v>
       </c>
       <c r="G73">
-        <v>-0.02350017406155867</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1803113952829991</v>
+      </c>
+      <c r="H73">
+        <v>0.4707428948860512</v>
+      </c>
+      <c r="I73">
+        <v>-0.2829660430306969</v>
+      </c>
+      <c r="J73">
+        <v>0.060215201380862</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1649307075899839</v>
+        <v>-0.1519121352006596</v>
       </c>
       <c r="C74">
-        <v>-0.002195174819044098</v>
+        <v>-0.02587859905615008</v>
       </c>
       <c r="D74">
-        <v>-0.04310244353098342</v>
+        <v>-0.004924142192625708</v>
       </c>
       <c r="E74">
-        <v>-0.01893573581367461</v>
+        <v>0.04781076667423768</v>
       </c>
       <c r="F74">
-        <v>-0.06282229609886039</v>
+        <v>0.0543718821230719</v>
       </c>
       <c r="G74">
-        <v>0.05069156179257348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01791490952851908</v>
+      </c>
+      <c r="H74">
+        <v>0.02710893286487286</v>
+      </c>
+      <c r="I74">
+        <v>0.02297452640943566</v>
+      </c>
+      <c r="J74">
+        <v>0.08427887942490582</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.232413890736317</v>
+        <v>-0.242724134521573</v>
       </c>
       <c r="C75">
-        <v>-0.006956809596424311</v>
+        <v>-0.0259337237748614</v>
       </c>
       <c r="D75">
-        <v>-0.07000881680592394</v>
+        <v>-0.02107779082041779</v>
       </c>
       <c r="E75">
-        <v>-0.1232024862698902</v>
+        <v>0.105223578122507</v>
       </c>
       <c r="F75">
-        <v>-0.03723654563622056</v>
+        <v>0.1482590759273599</v>
       </c>
       <c r="G75">
-        <v>0.04452886344294916</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.004882589114603768</v>
+      </c>
+      <c r="H75">
+        <v>0.01625871407036207</v>
+      </c>
+      <c r="I75">
+        <v>0.09105247525178788</v>
+      </c>
+      <c r="J75">
+        <v>0.01437154740831864</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2434666802777277</v>
+        <v>-0.2652362178381362</v>
       </c>
       <c r="C76">
-        <v>-0.01755309427557493</v>
+        <v>-0.00637504258181536</v>
       </c>
       <c r="D76">
-        <v>-0.1119279047054665</v>
+        <v>0.0118685803509728</v>
       </c>
       <c r="E76">
-        <v>-0.1297864011753829</v>
+        <v>0.1272971306287685</v>
       </c>
       <c r="F76">
-        <v>-0.07790522468045614</v>
+        <v>0.1817958555210381</v>
       </c>
       <c r="G76">
-        <v>0.03693010135963691</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05206351165416762</v>
+      </c>
+      <c r="H76">
+        <v>0.04119837429702512</v>
+      </c>
+      <c r="I76">
+        <v>0.0276764639649662</v>
+      </c>
+      <c r="J76">
+        <v>0.06189694700064081</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1323914502731222</v>
+        <v>-0.1288796806367946</v>
       </c>
       <c r="C77">
-        <v>0.04267985570129883</v>
+        <v>-0.06172302857688653</v>
       </c>
       <c r="D77">
-        <v>0.03884361299107073</v>
+        <v>0.01764807353565823</v>
       </c>
       <c r="E77">
-        <v>0.1396411539947561</v>
+        <v>-0.03221040923453311</v>
       </c>
       <c r="F77">
-        <v>0.03410005178960035</v>
+        <v>-0.1613370345883851</v>
       </c>
       <c r="G77">
-        <v>-0.05927108045303577</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.003017500924645781</v>
+      </c>
+      <c r="H77">
+        <v>-0.2219922098642994</v>
+      </c>
+      <c r="I77">
+        <v>0.2211695144688845</v>
+      </c>
+      <c r="J77">
+        <v>0.08142873669181067</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.08464456234246004</v>
+        <v>-0.08196384766548516</v>
       </c>
       <c r="C78">
-        <v>0.04809586319125894</v>
+        <v>-0.06612151336941902</v>
       </c>
       <c r="D78">
-        <v>0.01349550191003867</v>
+        <v>0.03687099233226734</v>
       </c>
       <c r="E78">
-        <v>0.04787633381276665</v>
+        <v>0.009291599540150621</v>
       </c>
       <c r="F78">
-        <v>0.009481209582780443</v>
+        <v>-0.07245008700056775</v>
       </c>
       <c r="G78">
-        <v>0.01319871965589144</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.0123034235744449</v>
+      </c>
+      <c r="H78">
+        <v>-0.02356803988548188</v>
+      </c>
+      <c r="I78">
+        <v>0.03294142792658585</v>
+      </c>
+      <c r="J78">
+        <v>0.0455653715522195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.06583243358026362</v>
+        <v>-0.1497801409015093</v>
       </c>
       <c r="C80">
-        <v>0.02257919078639888</v>
+        <v>0.4726145148154513</v>
       </c>
       <c r="D80">
-        <v>0.03030770868152307</v>
+        <v>0.8502963008399459</v>
       </c>
       <c r="E80">
-        <v>-0.03376918797492785</v>
+        <v>-0.05672292585763063</v>
       </c>
       <c r="F80">
-        <v>-0.1290763077190752</v>
+        <v>-0.05156507542563794</v>
       </c>
       <c r="G80">
-        <v>-0.9400231656255892</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04426194811124571</v>
+      </c>
+      <c r="H80">
+        <v>0.05547376925255922</v>
+      </c>
+      <c r="I80">
+        <v>-0.03775917670791837</v>
+      </c>
+      <c r="J80">
+        <v>-0.09722844721488567</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.166244714017914</v>
+        <v>-0.1790738260498517</v>
       </c>
       <c r="C81">
-        <v>-0.0114479022036614</v>
+        <v>-0.005736830373950206</v>
       </c>
       <c r="D81">
-        <v>-0.06414339356727145</v>
+        <v>-0.006003408747401488</v>
       </c>
       <c r="E81">
-        <v>-0.160965572247911</v>
+        <v>0.08576652317771262</v>
       </c>
       <c r="F81">
-        <v>-0.1032722395074017</v>
+        <v>0.1633626138515037</v>
       </c>
       <c r="G81">
-        <v>0.03712579874355321</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.03007972844897356</v>
+      </c>
+      <c r="H81">
+        <v>0.007792326708025355</v>
+      </c>
+      <c r="I81">
+        <v>0.05609547856923869</v>
+      </c>
+      <c r="J81">
+        <v>0.002484521749448109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.09475976530176289</v>
+        <v>-0.06881549495148603</v>
       </c>
       <c r="C83">
-        <v>0.053895429592616</v>
+        <v>-0.05145887538407082</v>
       </c>
       <c r="D83">
-        <v>0.0702650119899995</v>
+        <v>0.009084287540208636</v>
       </c>
       <c r="E83">
-        <v>0.00720237755650786</v>
+        <v>-0.03754904523371801</v>
       </c>
       <c r="F83">
-        <v>0.05670339955612482</v>
+        <v>-0.04482390686700154</v>
       </c>
       <c r="G83">
-        <v>0.02227538903139036</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05916088032982546</v>
+      </c>
+      <c r="H83">
+        <v>-0.02320703049053057</v>
+      </c>
+      <c r="I83">
+        <v>0.03149223062655611</v>
+      </c>
+      <c r="J83">
+        <v>0.07643363557253652</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2332205240385392</v>
+        <v>-0.2504256327609959</v>
       </c>
       <c r="C85">
-        <v>0.05000221003756294</v>
+        <v>-0.04680359865485174</v>
       </c>
       <c r="D85">
-        <v>-0.06570384418824994</v>
+        <v>0.01379724565200874</v>
       </c>
       <c r="E85">
-        <v>-0.1602556797290159</v>
+        <v>0.09052252830540106</v>
       </c>
       <c r="F85">
-        <v>-0.0612588674715725</v>
+        <v>0.1863301766812623</v>
       </c>
       <c r="G85">
-        <v>0.01855297271256317</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.004531202314292849</v>
+      </c>
+      <c r="H85">
+        <v>-0.02149218547250631</v>
+      </c>
+      <c r="I85">
+        <v>0.05480321590442669</v>
+      </c>
+      <c r="J85">
+        <v>0.06492022665822834</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04238128323926058</v>
+        <v>-0.02693242369451731</v>
       </c>
       <c r="C86">
-        <v>0.05120307074251813</v>
+        <v>-0.05957084481313599</v>
       </c>
       <c r="D86">
-        <v>-0.01779730722594857</v>
+        <v>0.03071300183099434</v>
       </c>
       <c r="E86">
-        <v>0.06356770032897394</v>
+        <v>0.01229017813548406</v>
       </c>
       <c r="F86">
-        <v>-0.003745602221595322</v>
+        <v>-0.06816660844763928</v>
       </c>
       <c r="G86">
-        <v>0.02938944457174541</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.005971751336465592</v>
+      </c>
+      <c r="H86">
+        <v>-0.06531750129341568</v>
+      </c>
+      <c r="I86">
+        <v>0.03193820891676391</v>
+      </c>
+      <c r="J86">
+        <v>0.03889887469125352</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.02835263919075304</v>
+        <v>-0.03689311450324484</v>
       </c>
       <c r="C87">
-        <v>-0.04916231328654416</v>
+        <v>0.008562851832685521</v>
       </c>
       <c r="D87">
-        <v>3.142746755982284e-06</v>
+        <v>-0.009932465220820285</v>
       </c>
       <c r="E87">
-        <v>0.09279745826896003</v>
+        <v>0.005215370224988497</v>
       </c>
       <c r="F87">
-        <v>-0.02298116320274604</v>
+        <v>-0.100818240853915</v>
       </c>
       <c r="G87">
-        <v>0.02183540647328416</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02316910977428551</v>
+      </c>
+      <c r="H87">
+        <v>-0.01401785707382456</v>
+      </c>
+      <c r="I87">
+        <v>-0.01775108060071294</v>
+      </c>
+      <c r="J87">
+        <v>0.02043842384906533</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03966928472367657</v>
+        <v>-0.0301771142840498</v>
       </c>
       <c r="C88">
-        <v>0.03678818876443516</v>
+        <v>-0.01665726113068516</v>
       </c>
       <c r="D88">
-        <v>-0.008964511831683293</v>
+        <v>0.02092317427203951</v>
       </c>
       <c r="E88">
-        <v>-0.01503673498063215</v>
+        <v>0.01561539845506658</v>
       </c>
       <c r="F88">
-        <v>-0.01745872146395011</v>
+        <v>0.01614553699027623</v>
       </c>
       <c r="G88">
-        <v>0.008021358926283221</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03372296233220098</v>
+      </c>
+      <c r="H88">
+        <v>-0.03652123776025137</v>
+      </c>
+      <c r="I88">
+        <v>-0.01793048413080005</v>
+      </c>
+      <c r="J88">
+        <v>0.03023596265090773</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.007248285018318301</v>
+        <v>-0.0667905371258332</v>
       </c>
       <c r="C89">
-        <v>-0.4101980847101624</v>
+        <v>0.3315799935538487</v>
       </c>
       <c r="D89">
-        <v>0.1126856748698365</v>
+        <v>-0.2135803377122911</v>
       </c>
       <c r="E89">
-        <v>0.004183623120649126</v>
+        <v>-0.06237415162430956</v>
       </c>
       <c r="F89">
-        <v>0.02301068294306781</v>
+        <v>-0.04188679635388087</v>
       </c>
       <c r="G89">
-        <v>0.0397028068466409</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04228289988924805</v>
+      </c>
+      <c r="H89">
+        <v>-0.05115644945435281</v>
+      </c>
+      <c r="I89">
+        <v>0.2556555167416822</v>
+      </c>
+      <c r="J89">
+        <v>-0.09082263359573634</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01355141343451451</v>
+        <v>-0.04799321331364431</v>
       </c>
       <c r="C90">
-        <v>-0.3054979799250606</v>
+        <v>0.290049873716236</v>
       </c>
       <c r="D90">
-        <v>0.05034816276410918</v>
+        <v>-0.1673979652864871</v>
       </c>
       <c r="E90">
-        <v>0.0456153714602354</v>
+        <v>-0.04554920200663391</v>
       </c>
       <c r="F90">
-        <v>0.01999820461482494</v>
+        <v>-0.03798674798507465</v>
       </c>
       <c r="G90">
-        <v>0.04205803467043304</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02286023474408754</v>
+      </c>
+      <c r="H90">
+        <v>-0.01028109934362926</v>
+      </c>
+      <c r="I90">
+        <v>0.2248763030318565</v>
+      </c>
+      <c r="J90">
+        <v>-0.05625261508983927</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.2767363097994835</v>
+        <v>-0.2970338431941349</v>
       </c>
       <c r="C91">
-        <v>0.02399690418847224</v>
+        <v>-0.03712569782805577</v>
       </c>
       <c r="D91">
-        <v>-0.0786013668468063</v>
+        <v>-0.002360080792877375</v>
       </c>
       <c r="E91">
-        <v>-0.2882117819406415</v>
+        <v>0.08823283029576644</v>
       </c>
       <c r="F91">
-        <v>-0.09965203096992548</v>
+        <v>0.2908532914376055</v>
       </c>
       <c r="G91">
-        <v>-0.0177849640729455</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02344540424235119</v>
+      </c>
+      <c r="H91">
+        <v>0.005473599865356779</v>
+      </c>
+      <c r="I91">
+        <v>0.1144219747661605</v>
+      </c>
+      <c r="J91">
+        <v>0.04261270330302813</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.02493431199212755</v>
+        <v>-0.1038929685543177</v>
       </c>
       <c r="C92">
-        <v>-0.4120127149837537</v>
+        <v>0.3872757452570469</v>
       </c>
       <c r="D92">
-        <v>0.1743318074338242</v>
+        <v>-0.1957769239468018</v>
       </c>
       <c r="E92">
-        <v>-0.1246288695194579</v>
+        <v>-0.08368379992995882</v>
       </c>
       <c r="F92">
-        <v>-0.06240551530905752</v>
+        <v>0.1153007930864665</v>
       </c>
       <c r="G92">
-        <v>-0.1404446578004087</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.08694423535951852</v>
+      </c>
+      <c r="H92">
+        <v>-0.4378806981212248</v>
+      </c>
+      <c r="I92">
+        <v>-0.6583917229652476</v>
+      </c>
+      <c r="J92">
+        <v>0.3471732433996686</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.002420223177416882</v>
+        <v>-0.0531296150643064</v>
       </c>
       <c r="C93">
-        <v>-0.3709297633855456</v>
+        <v>0.3443055270478775</v>
       </c>
       <c r="D93">
-        <v>0.08513578045883968</v>
+        <v>-0.2148749642556585</v>
       </c>
       <c r="E93">
-        <v>-0.02236647072004835</v>
+        <v>-0.07820595988871554</v>
       </c>
       <c r="F93">
-        <v>-0.0009405817172476544</v>
+        <v>-0.007006068921509389</v>
       </c>
       <c r="G93">
-        <v>-0.03414505677623016</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03542052067565352</v>
+      </c>
+      <c r="H93">
+        <v>0.01982004396512799</v>
+      </c>
+      <c r="I93">
+        <v>0.1574931833228823</v>
+      </c>
+      <c r="J93">
+        <v>-0.07594301028409439</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2755554033090002</v>
+        <v>-0.3050463313344294</v>
       </c>
       <c r="C94">
-        <v>-0.07977037319628331</v>
+        <v>-0.0002505273694714078</v>
       </c>
       <c r="D94">
-        <v>-0.04091879996280881</v>
+        <v>-0.04714203772387724</v>
       </c>
       <c r="E94">
-        <v>-0.3450134718745427</v>
+        <v>0.1285695189019711</v>
       </c>
       <c r="F94">
-        <v>-0.4099777148650813</v>
+        <v>0.3433137165247586</v>
       </c>
       <c r="G94">
-        <v>0.1186729986585303</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.209408782167961</v>
+      </c>
+      <c r="H94">
+        <v>-0.1322177355621701</v>
+      </c>
+      <c r="I94">
+        <v>0.01681961978412869</v>
+      </c>
+      <c r="J94">
+        <v>-0.1645746689369296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1972311466141968</v>
+        <v>-0.1318525065376569</v>
       </c>
       <c r="C95">
-        <v>-0.02326844859889075</v>
+        <v>-0.07996570866894</v>
       </c>
       <c r="D95">
-        <v>-0.0006677225600164191</v>
+        <v>-0.06867958824604896</v>
       </c>
       <c r="E95">
-        <v>-0.3861426851451301</v>
+        <v>0.03744610116855814</v>
       </c>
       <c r="F95">
-        <v>0.8387094775984038</v>
+        <v>0.07415068969645293</v>
       </c>
       <c r="G95">
-        <v>-0.0854920542648797</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8962664564670804</v>
+      </c>
+      <c r="H95">
+        <v>0.1758719661507319</v>
+      </c>
+      <c r="I95">
+        <v>-0.1246903621236947</v>
+      </c>
+      <c r="J95">
+        <v>-0.2475736726503004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2291035109547861</v>
+        <v>-0.2104145326789815</v>
       </c>
       <c r="C98">
-        <v>-0.1175891467604467</v>
+        <v>0.02632502545610391</v>
       </c>
       <c r="D98">
-        <v>0.05256894841785396</v>
+        <v>-0.08939144180831976</v>
       </c>
       <c r="E98">
-        <v>0.09107140453753892</v>
+        <v>-0.03041190066387138</v>
       </c>
       <c r="F98">
-        <v>0.0435802897367271</v>
+        <v>-0.1579519979149891</v>
       </c>
       <c r="G98">
-        <v>0.0478050162080484</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08530826785878745</v>
+      </c>
+      <c r="H98">
+        <v>0.3244831354306507</v>
+      </c>
+      <c r="I98">
+        <v>-0.159541943293517</v>
+      </c>
+      <c r="J98">
+        <v>-0.01906563371220657</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02308727510665665</v>
+        <v>-0.01659823231705199</v>
       </c>
       <c r="C101">
-        <v>0.02071640180792178</v>
+        <v>-0.02619795355280346</v>
       </c>
       <c r="D101">
-        <v>-0.03193535606054499</v>
+        <v>0.01926053091345194</v>
       </c>
       <c r="E101">
-        <v>0.02910960204792305</v>
+        <v>0.03423480306753807</v>
       </c>
       <c r="F101">
-        <v>0.01417921876875576</v>
+        <v>-0.06611299087904707</v>
       </c>
       <c r="G101">
-        <v>0.02359925288712285</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.01697481849271663</v>
+      </c>
+      <c r="H101">
+        <v>-0.1094695302556521</v>
+      </c>
+      <c r="I101">
+        <v>-0.05037504558790766</v>
+      </c>
+      <c r="J101">
+        <v>-0.1010156229154196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1204082788292573</v>
+        <v>-0.1202994027503162</v>
       </c>
       <c r="C102">
-        <v>0.01443823803841906</v>
+        <v>-0.01938387940388938</v>
       </c>
       <c r="D102">
-        <v>-0.04078352508074885</v>
+        <v>0.01195714267892791</v>
       </c>
       <c r="E102">
-        <v>-0.0875132026316871</v>
+        <v>0.05342862135252596</v>
       </c>
       <c r="F102">
-        <v>-0.007478605902082391</v>
+        <v>0.0975100556777482</v>
       </c>
       <c r="G102">
-        <v>-0.009488029118175732</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.01630563371390556</v>
+      </c>
+      <c r="H102">
+        <v>0.0201929207237393</v>
+      </c>
+      <c r="I102">
+        <v>0.05523174997273268</v>
+      </c>
+      <c r="J102">
+        <v>0.03534000710793448</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.0179899849137003</v>
+        <v>-0.03207143317287128</v>
       </c>
       <c r="C103">
-        <v>-0.00147408411217521</v>
+        <v>-0.00123996821118382</v>
       </c>
       <c r="D103">
-        <v>-0.01283493311489268</v>
+        <v>0.009620783448247728</v>
       </c>
       <c r="E103">
-        <v>-0.02990886371651164</v>
+        <v>0.0214017699024951</v>
       </c>
       <c r="F103">
-        <v>-0.01210365481932499</v>
+        <v>0.02877169845778152</v>
       </c>
       <c r="G103">
-        <v>0.01321156378281733</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01402268677320665</v>
+      </c>
+      <c r="H103">
+        <v>-0.01598149252066459</v>
+      </c>
+      <c r="I103">
+        <v>0.03323373519367808</v>
+      </c>
+      <c r="J103">
+        <v>0.006029910403704251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
